--- a/plans/first-version-feb-2023.xlsx
+++ b/plans/first-version-feb-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\personal\mygithub\inbravo.github.io\plans\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3311B74-CC37-4463-B4E3-9F5BFA2AEF00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2EB4F92-1E93-467E-91A0-6E57A12AE874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,17 +16,28 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Databricks Certificate" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>#</t>
   </si>
@@ -53,6 +64,9 @@
   </si>
   <si>
     <t>Date</t>
+  </si>
+  <si>
+    <t>5 lessons a day</t>
   </si>
 </sst>
 </file>
@@ -642,10 +656,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01AD2F8E-0ADD-4B3E-AE46-3E978A82112B}">
-  <dimension ref="B2:D26"/>
+  <dimension ref="B2:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C6"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,9 +667,10 @@
     <col min="2" max="2" width="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="54.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -666,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="1">
         <v>1</v>
       </c>
@@ -675,7 +690,7 @@
         <v>44976</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1">
         <v>2</v>
       </c>
@@ -683,8 +698,11 @@
       <c r="D4" s="2">
         <v>44977</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>3</v>
       </c>
@@ -693,7 +711,7 @@
         <v>44978</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="1">
         <v>4</v>
       </c>
@@ -702,7 +720,7 @@
         <v>44979</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="1">
         <v>5</v>
       </c>
@@ -711,7 +729,7 @@
         <v>44980</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="1">
         <v>6</v>
       </c>
@@ -720,7 +738,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="1">
         <v>7</v>
       </c>
@@ -729,7 +747,7 @@
         <v>44982</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="1">
         <v>8</v>
       </c>
@@ -738,7 +756,7 @@
         <v>44983</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="1">
         <v>9</v>
       </c>
@@ -747,7 +765,7 @@
         <v>44984</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B12" s="1">
         <v>10</v>
       </c>
@@ -756,7 +774,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B13" s="1">
         <v>11</v>
       </c>
@@ -765,7 +783,7 @@
         <v>44986</v>
       </c>
     </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B14" s="1">
         <v>12</v>
       </c>
@@ -774,7 +792,7 @@
         <v>44987</v>
       </c>
     </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B15" s="1">
         <v>13</v>
       </c>
@@ -783,7 +801,7 @@
         <v>44988</v>
       </c>
     </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B16" s="1">
         <v>14</v>
       </c>
